--- a/Dalmatian/bin/x64/Release/Temp/CellCount.xlsx
+++ b/Dalmatian/bin/x64/Release/Temp/CellCount.xlsx
@@ -17,10 +17,10 @@
     <t>Var1</t>
   </si>
   <si>
-    <t>P:\DiplomRabota\Test_1</t>
+    <t>P:\DiplomRabota\Test_1\Masked</t>
   </si>
   <si>
-    <t>P:\DiplomRabota\Test_2</t>
+    <t>P:\DiplomRabota\Test_2\Masked</t>
   </si>
 </sst>
 </file>

--- a/Dalmatian/bin/x64/Release/Temp/CellCount.xlsx
+++ b/Dalmatian/bin/x64/Release/Temp/CellCount.xlsx
@@ -17,10 +17,10 @@
     <t>Var1</t>
   </si>
   <si>
-    <t>P:\DiplomRabota\Test_1\Masked</t>
+    <t>P:\DiplomRabota\Test_1</t>
   </si>
   <si>
-    <t>P:\DiplomRabota\Test_2\Masked</t>
+    <t>P:\DiplomRabota\Test_2</t>
   </si>
 </sst>
 </file>
